--- a/Registros de Usuários Gerais.xlsx
+++ b/Registros de Usuários Gerais.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">NOME</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">TIPO</t>
   </si>
   <si>
+    <t xml:space="preserve">SETOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">José Carlos</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Colaborador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI</t>
   </si>
   <si>
     <t xml:space="preserve">Guimarães Rocha</t>
@@ -428,10 +434,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -456,61 +462,76 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>12345</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
